--- a/salaries.xlsx
+++ b/salaries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="-80" windowWidth="23320" windowHeight="13260" tabRatio="500"/>
+    <workbookView xWindow="-220" yWindow="380" windowWidth="23320" windowHeight="13260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Post-doc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>associate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>software engineer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>patent consultant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data analyst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +66,22 @@
   </si>
   <si>
     <t>CTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hours per week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical specialist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patent agent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,79 +451,110 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A3:B24"/>
+  <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <v>46000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>74500</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>86800</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>115000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>80000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>109000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12">
         <v>145000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>120000</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>129000</v>
@@ -523,7 +562,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>137000</v>
@@ -531,7 +570,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>90000</v>
@@ -539,7 +578,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>112000</v>
@@ -547,7 +586,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>140000</v>
@@ -555,7 +594,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>223000</v>
